--- a/MainFile.xlsx
+++ b/MainFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTichit\OneDrive - Deloitte (O365D)\Documents\TRAVAUX INTERNES\202307_Automatisation\01_CoreModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5B631-72F2-4369-8810-0AE074009DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB382B6-FCF7-4673-9D0A-C206F38238AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6A5E20E0-9F41-413A-9FB1-79EA13BCB388}"/>
   </bookViews>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J8" sqref="A6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2062,10 +2062,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.471921296295</v>
       </c>
       <c r="I6" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.471921296295</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -2089,10 +2089,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.471921296295</v>
       </c>
       <c r="I7" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.471921296295</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -2116,10 +2116,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.471921296295</v>
       </c>
       <c r="I8" s="31">
-        <v>45110.626736111109</v>
+        <v>45111.472013888888</v>
       </c>
       <c r="J8" s="21"/>
     </row>

--- a/MainFile.xlsx
+++ b/MainFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTichit\OneDrive - Deloitte (O365D)\Documents\TRAVAUX INTERNES\202307_Automatisation\01_CoreModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB382B6-FCF7-4673-9D0A-C206F38238AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838FE3C-274D-4D6C-9628-B0AA7043308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6A5E20E0-9F41-413A-9FB1-79EA13BCB388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6A5E20E0-9F41-413A-9FB1-79EA13BCB388}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -153,10 +153,31 @@
     <t>Function defined in Excel is not known</t>
   </si>
   <si>
-    <t>Refresh XL : doesn't exist</t>
-  </si>
-  <si>
     <t>Test 2</t>
+  </si>
+  <si>
+    <t>Refresh XL</t>
+  </si>
+  <si>
+    <t>ID_PARAM</t>
+  </si>
+  <si>
+    <t>PARAM_NAME</t>
+  </si>
+  <si>
+    <t>PARAM_VALUE</t>
+  </si>
+  <si>
+    <t>path_wb</t>
+  </si>
+  <si>
+    <t>macro_name</t>
+  </si>
+  <si>
+    <t>C://Users//DTichit//Downloads//Book1.xlsm</t>
+  </si>
+  <si>
+    <t>HelloWorld</t>
   </si>
 </sst>
 </file>
@@ -804,6 +825,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25D68395-617D-4104-BED8-356498C5058E}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{25D68395-617D-4104-BED8-356498C5058E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FEECEC74-158C-4CAC-BFCD-32627A1FF808}" name="ID_PARAM"/>
+    <tableColumn id="2" xr3:uid="{D364092F-5E93-413E-913F-EE10F248AE5D}" name="PARAM_NAME"/>
+    <tableColumn id="3" xr3:uid="{64BD00B4-8B52-4D9F-BB00-1A61AFCA8248}" name="PARAM_VALUE"/>
+  </tableColumns>
+  <tableStyleInfo name="classic" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1975,8 +2008,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J8" sqref="A6:J8"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2062,10 +2095,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="31">
-        <v>45111.471921296295</v>
+        <v>45114.444236111114</v>
       </c>
       <c r="I6" s="31">
-        <v>45111.471921296295</v>
+        <v>45114.444236111114</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -2074,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>27</v>
@@ -2089,10 +2122,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="31">
-        <v>45111.471921296295</v>
+        <v>45114.444247685184</v>
       </c>
       <c r="I7" s="31">
-        <v>45111.471921296295</v>
+        <v>45114.444247685184</v>
       </c>
       <c r="J7" s="21"/>
     </row>
@@ -2101,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>28</v>
@@ -2110,17 +2143,10 @@
         <v>45</v>
       </c>
       <c r="E8" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="31">
-        <v>45111.471921296295</v>
-      </c>
-      <c r="I8" s="31">
-        <v>45111.472013888888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2128,6 +2154,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2443,13 +2470,57 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7CD66-9B70-42FC-BCFF-2A1E1D6C9BA3}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>